--- a/Doc/Bataille-navale_use-cases_scenarios.xlsx
+++ b/Doc/Bataille-navale_use-cases_scenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothee.RAPIN\OneDrive - CPNV\1re année\Projets\Bataille-navale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\Bataille-navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Use-cases" sheetId="1" r:id="rId1"/>
@@ -881,15 +881,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -898,8 +898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="371475"/>
-          <a:ext cx="2047875" cy="1171575"/>
+          <a:off x="3048000" y="1733550"/>
+          <a:ext cx="1800000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -939,16 +939,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275999</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -957,8 +957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409950" y="1619250"/>
-          <a:ext cx="2047875" cy="1171575"/>
+          <a:off x="3047999" y="209550"/>
+          <a:ext cx="1800000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -999,15 +999,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1016,8 +1016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="2867025"/>
-          <a:ext cx="2047875" cy="1171575"/>
+          <a:off x="3057525" y="971550"/>
+          <a:ext cx="1800000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1057,16 +1057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>188550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1077,8 +1077,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2286000" y="957263"/>
-          <a:ext cx="1143000" cy="1128712"/>
+          <a:off x="2038350" y="2093550"/>
+          <a:ext cx="1009650" cy="11475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1106,16 +1106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>188550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1125,9 +1125,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="2200275"/>
-          <a:ext cx="1123950" cy="4763"/>
+        <a:xfrm flipV="1">
+          <a:off x="2045970" y="569550"/>
+          <a:ext cx="1002029" cy="1354500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1155,16 +1155,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>188550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1174,9 +1174,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="2305050"/>
-          <a:ext cx="1104900" cy="1147763"/>
+        <a:xfrm flipV="1">
+          <a:off x="2045970" y="1331550"/>
+          <a:ext cx="1011555" cy="691560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1268,6 +1268,222 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Ellipse 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="2495550"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Choisire une map</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>188550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2045970" y="2183130"/>
+          <a:ext cx="1011555" cy="672420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Ellipse 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="3257550"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Afficher les scores</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>188550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connecteur droit avec flèche 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2053590" y="2274570"/>
+          <a:ext cx="1003935" cy="1342980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1541,7 +1757,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1933,7 +2151,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
